--- a/tables/Table_2_adverse_events_summary_for.xlsx
+++ b/tables/Table_2_adverse_events_summary_for.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Actual.treatment</t>
   </si>
   <si>
+    <t xml:space="preserve">Solicited.AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis.Toxicity.Grade</t>
+  </si>
+  <si>
     <t xml:space="preserve">Body.System.or.Organ.Class</t>
   </si>
   <si>
@@ -29,6 +35,39 @@
     <t xml:space="preserve">Cohort 1 SNIPR001</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 1 - MILD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injury, poisoning and procedural complications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin and subcutaneous tissue disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dermatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 2 - MODERATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infections and infestations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urinary tract infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gastrointestinal disorders</t>
   </si>
   <si>
@@ -41,13 +80,76 @@
     <t xml:space="preserve">Headache</t>
   </si>
   <si>
+    <t xml:space="preserve">Cohort 2 SNIPR001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood creatine phosphokinase increased</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cohort 3 SNIPR001</t>
   </si>
   <si>
+    <t xml:space="preserve">Constipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vomiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculoskeletal and connective tissue disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory, thoracic and mediastinal disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinus congestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ear and labyrinth disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper respiratory tract infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligament sprain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Placebo</t>
   </si>
   <si>
-    <t xml:space="preserve">Constipation</t>
+    <t xml:space="preserve">Haematochezia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amylase increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 3 - SEVERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rib fracture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinal fracture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade 4 - LIFE THREATENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Road traffic accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diaphragmatic rupture</t>
   </si>
 </sst>
 </file>
@@ -392,24 +494,36 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -417,13 +531,19 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -431,54 +551,786 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B36C47C1C5CBF428DE3D886D66F1FFB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec57fd46265cdb6b5a27e3ee2943c41e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84d98a7d-1acb-47a2-b5f7-f7535c8ff9c8" xmlns:ns3="620b9a2a-88cc-4ce3-90c0-c9cc3c172a70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb1ddec0d468951bd51f82059ddd98cd" ns2:_="" ns3:_="">
+    <xsd:import namespace="84d98a7d-1acb-47a2-b5f7-f7535c8ff9c8"/>
+    <xsd:import namespace="620b9a2a-88cc-4ce3-90c0-c9cc3c172a70"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="84d98a7d-1acb-47a2-b5f7-f7535c8ff9c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b2e02bfa-9660-486b-829a-e65c617e61de" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="23" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="620b9a2a-88cc-4ce3-90c0-c9cc3c172a70" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84d98a7d-1acb-47a2-b5f7-f7535c8ff9c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D8AAEBA-4113-42E1-A95F-250F0E84D7D2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95CB71A-6F68-4C59-A2BB-C1CACBC8DD2A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7B53957-F06D-4F53-A7E9-5D8730722ABB}"/>
 </file>
--- a/tables/Table_2_adverse_events_summary_for.xlsx
+++ b/tables/Table_2_adverse_events_summary_for.xlsx
@@ -1324,13 +1324,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D8AAEBA-4113-42E1-A95F-250F0E84D7D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4C802E0-FC5C-46ED-8AC9-39A049EE6745}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95CB71A-6F68-4C59-A2BB-C1CACBC8DD2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644E6265-DCFF-4991-ADA7-4356463C0B38}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7B53957-F06D-4F53-A7E9-5D8730722ABB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61D7B422-4B6D-4004-9A1E-56B99235E61C}"/>
 </file>